--- a/va_facility_data_2025-02-20/Northwest Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northwest Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7175029266b44495a208ad57b3b7e637"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raa0abbcf45ce44ad9ba0c791b13cae3b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9d437a3d6f8d41588b2bc478479ec40b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc2d1a9d381934446a02495466e9f3d04"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3881a0566c2a402b85741a2dbda1e822"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R42c513aa22b840ffa73b389bf43292ad"/>
   </x:sheets>
 </x:workbook>
 </file>
